--- a/resources/component_list.xlsx
+++ b/resources/component_list.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Halil Temurtaş\Desktop\Ekstra\Capstone_Duayenler\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A216C56-17A7-41F0-90B7-60C0378510F8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115AFD14-850A-4AF3-94B8-13F4BFD54395}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Component Name</t>
   </si>
@@ -76,13 +81,55 @@
   </si>
   <si>
     <t>klasörde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raspberry Pi Kamera Modülü V2 </t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/raspberry-pi-kamera-modulu-camera?query=kamera&amp;</t>
+  </si>
+  <si>
+    <t>Waveshare Raspberry Kamera - Ayarlanabilir Fokus (B)</t>
+  </si>
+  <si>
+    <t>Waveshare Raspberry Pi Kamera - Ayarlanabilir Fokus + Kızılötesi Led Modülü (F)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/raspberry-pi-kamera-ayarli-kizilotesi-led-modulu</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/raspberry-kamera-ayarlanabilir-fokus</t>
+  </si>
+  <si>
+    <t>Just Camera for Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Camera w/ light Sensors for Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Official camera v2 for Raspberry (Quality Sensor)</t>
+  </si>
+  <si>
+    <t>145,11 TL</t>
+  </si>
+  <si>
+    <t>186,21 TL</t>
+  </si>
+  <si>
+    <t>235 TL</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -100,6 +147,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,12 +177,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,38 +501,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="6" width="11.28515625"/>
-    <col min="7" max="7" width="134.5703125"/>
-    <col min="8" max="1025" width="11.28515625"/>
+    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="2" max="4" width="11.28515625"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="134.5703125"/>
+    <col min="7" max="1024" width="11.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -484,13 +545,14 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
@@ -500,10 +562,10 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -513,13 +575,14 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
@@ -529,10 +592,10 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -542,16 +605,27 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -561,16 +635,27 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -580,128 +665,126 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="G18" s="1" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="G19" s="1" t="s">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="G20" s="1" t="s">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/resources/component_list.xlsx
+++ b/resources/component_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Halil Temurtaş\Desktop\Ekstra\Capstone_Duayenler\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srtls\Documents\GitHub\Capstone_Duayenler\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115AFD14-850A-4AF3-94B8-13F4BFD54395}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2DBC59-5641-4C1E-8A85-8F96B1462765}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Component Name</t>
   </si>
@@ -123,13 +123,25 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>waveshare Lase sensor</t>
+  </si>
+  <si>
+    <t>82.16TL</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/lazer-mesafe-sensoru</t>
+  </si>
+  <si>
+    <t>Digital o/p, laser based distance sensor for 0.8-1.5m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -156,6 +168,14 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,10 +194,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -187,8 +208,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -205,7 +228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -503,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -687,11 +710,20 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
@@ -789,8 +821,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{CF819F7D-5CA9-4288-A0CF-1B8A670E1C19}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/resources/component_list.xlsx
+++ b/resources/component_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srtls\Documents\GitHub\Capstone_Duayenler\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2DBC59-5641-4C1E-8A85-8F96B1462765}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43CBD58-B06E-4EE6-B09D-34673FB99F8D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Component Name</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>waveshare Lase sensor</t>
-  </si>
-  <si>
     <t>82.16TL</t>
   </si>
   <si>
@@ -135,6 +132,51 @@
   </si>
   <si>
     <t>Digital o/p, laser based distance sensor for 0.8-1.5m</t>
+  </si>
+  <si>
+    <t>Reflective Optical Sensor with Transistor Output</t>
+  </si>
+  <si>
+    <t>.99TL</t>
+  </si>
+  <si>
+    <t>kalsörde</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/tcrt5000-kizilotesi-sensor?query=k%C4%B1z%C4%B1l%C3%B6tesi%20sens%C3%B6r&amp;</t>
+  </si>
+  <si>
+    <t>IR sensör for 0.2 to 15mm</t>
+  </si>
+  <si>
+    <t>IR sensor card (8)</t>
+  </si>
+  <si>
+    <t>67TL</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/qtr-8rc-kizilotesi-sensor?query=k%C4%B1z%C4%B1l%C3%B6tesi%20sens%C3%B6r&amp;</t>
+  </si>
+  <si>
+    <t>IR sensör for 3mm</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>waveshare Laser sensor</t>
+  </si>
+  <si>
+    <t>TF mini LiDAR</t>
+  </si>
+  <si>
+    <t>273.83TL</t>
+  </si>
+  <si>
+    <t>https://www.direnc.net/tf-mini-lidar-tof-lazer-menzil-sensoru-dfrobot</t>
+  </si>
+  <si>
+    <t>Laser menzil sensörü for mapping</t>
   </si>
 </sst>
 </file>
@@ -527,7 +569,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -711,43 +753,75 @@
     </row>
     <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
@@ -823,9 +897,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" xr:uid="{CF819F7D-5CA9-4288-A0CF-1B8A670E1C19}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{EC06E0A4-B437-4578-A0F3-91EDF1CD2028}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{F209609A-F13D-4A57-A341-851EE1B89B61}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{350154C3-1F64-44DE-8B7D-51518698B62C}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId5"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/resources/component_list.xlsx
+++ b/resources/component_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srtls\Documents\GitHub\Capstone_Duayenler\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43CBD58-B06E-4EE6-B09D-34673FB99F8D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF05110D-61A7-4C75-87BF-640EDED24F81}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>Component Name</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>Laser menzil sensörü for mapping</t>
+  </si>
+  <si>
+    <t>MZ80 kızılötesi sensör</t>
+  </si>
+  <si>
+    <t>35.4TL</t>
+  </si>
+  <si>
+    <t>https://www.robolinkmarket.com/e18-d80nk-3-80cm-ayarlanabilir-kizilotesi-sensor-mz80.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-80cm distance measurement </t>
   </si>
 </sst>
 </file>
@@ -569,7 +581,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -824,12 +836,22 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
@@ -900,9 +922,10 @@
     <hyperlink ref="E8" r:id="rId2" xr:uid="{EC06E0A4-B437-4578-A0F3-91EDF1CD2028}"/>
     <hyperlink ref="E9" r:id="rId3" xr:uid="{F209609A-F13D-4A57-A341-851EE1B89B61}"/>
     <hyperlink ref="E10" r:id="rId4" xr:uid="{350154C3-1F64-44DE-8B7D-51518698B62C}"/>
+    <hyperlink ref="E11" r:id="rId5" xr:uid="{D2ACA959-33F8-4E2E-97B8-CBDA6770CAEC}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId6"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/resources/component_list.xlsx
+++ b/resources/component_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srtls\Documents\GitHub\Capstone_Duayenler\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Halil Temurtaş\Desktop\Ekstra\Capstone_Duayenler\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF05110D-61A7-4C75-87BF-640EDED24F81}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6237F8F-E87A-4792-8D71-480DD21D4A7B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,7 +265,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -636,7 +636,7 @@
       <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -666,7 +666,7 @@
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -696,7 +696,7 @@
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -726,7 +726,7 @@
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -756,7 +756,7 @@
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -923,9 +923,14 @@
     <hyperlink ref="E9" r:id="rId3" xr:uid="{F209609A-F13D-4A57-A341-851EE1B89B61}"/>
     <hyperlink ref="E10" r:id="rId4" xr:uid="{350154C3-1F64-44DE-8B7D-51518698B62C}"/>
     <hyperlink ref="E11" r:id="rId5" xr:uid="{D2ACA959-33F8-4E2E-97B8-CBDA6770CAEC}"/>
+    <hyperlink ref="E2" r:id="rId6" xr:uid="{BE3DD6A4-ACFF-4BCF-9660-4F673994E7C3}"/>
+    <hyperlink ref="E3" r:id="rId7" xr:uid="{7A58C143-2A99-4A56-B2A8-4A5CA43E1E70}"/>
+    <hyperlink ref="E4" r:id="rId8" xr:uid="{2084FC83-6DF1-4176-BA82-A9ACFAF716A5}"/>
+    <hyperlink ref="E5" r:id="rId9" xr:uid="{00F155BF-0893-4EC1-9FAC-8515DA39C176}"/>
+    <hyperlink ref="E6" r:id="rId10" xr:uid="{44F1059C-3448-4BC5-B54A-EDC131C39729}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId11"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/resources/component_list.xlsx
+++ b/resources/component_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Halil Temurtaş\Desktop\Ekstra\Capstone_Duayenler\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6237F8F-E87A-4792-8D71-480DD21D4A7B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355BBF00-07ED-40BB-B553-9404C7D87C46}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -633,7 +633,7 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -663,7 +663,7 @@
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -693,7 +693,7 @@
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -789,7 +789,7 @@
       <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -825,7 +825,7 @@
       <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -928,9 +928,14 @@
     <hyperlink ref="E4" r:id="rId8" xr:uid="{2084FC83-6DF1-4176-BA82-A9ACFAF716A5}"/>
     <hyperlink ref="E5" r:id="rId9" xr:uid="{00F155BF-0893-4EC1-9FAC-8515DA39C176}"/>
     <hyperlink ref="E6" r:id="rId10" xr:uid="{44F1059C-3448-4BC5-B54A-EDC131C39729}"/>
+    <hyperlink ref="D2" r:id="rId11" display="datasheets\Sharp_GP2Y0A41SK0F.pdf" xr:uid="{CB773F08-FEA8-4482-B8B5-A7B09DA8B943}"/>
+    <hyperlink ref="D3" r:id="rId12" xr:uid="{4BECD78F-372E-4A25-ADBB-3346DC157777}"/>
+    <hyperlink ref="D4" r:id="rId13" xr:uid="{2F881A2A-33DF-4505-8090-975BFF4DF5EE}"/>
+    <hyperlink ref="D8" r:id="rId14" xr:uid="{82FF4BEB-BF9C-4CC9-AFA0-33AF72ABE18E}"/>
+    <hyperlink ref="D10" r:id="rId15" xr:uid="{82DC462B-3447-44D3-91D5-62424163C23C}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId16"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/resources/component_list.xlsx
+++ b/resources/component_list.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilker\projects\Capstone_Duayenler\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98B8D21-1E6F-42ED-8ED6-3CDC4541C4A0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,159 +25,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
-  <si>
-    <t xml:space="preserve">Component Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datasheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharp GP2Y0A41SK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75,54 TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">klasörde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robotistan.com/sharp-gp2y0a41sk-4-30cm-sensor-infrared-proximity-sensor-short-range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog o/p, laser based distance sensor for 4-30 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharp GP2Y0D805Z0F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42,41TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robotistan.com/sharp-gp2y0d805z0f-kizilotesi-sensor-5-cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital o/p, laser based distance sensor for 0-5 cm</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+  <si>
+    <t>Component Name</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>Web Link</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Sharp GP2Y0A41SK</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>75,54 TL</t>
+  </si>
+  <si>
+    <t>klasörde</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/sharp-gp2y0a41sk-4-30cm-sensor-infrared-proximity-sensor-short-range</t>
+  </si>
+  <si>
+    <t>Analog o/p, laser based distance sensor for 4-30 cm</t>
+  </si>
+  <si>
+    <t>Sharp GP2Y0D805Z0F</t>
+  </si>
+  <si>
+    <t>42,41TL</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/sharp-gp2y0d805z0f-kizilotesi-sensor-5-cm</t>
+  </si>
+  <si>
+    <t>Digital o/p, laser based distance sensor for 0-5 cm</t>
   </si>
   <si>
     <t xml:space="preserve">Raspberry Pi Kamera Modülü V2 </t>
   </si>
   <si>
-    <t xml:space="preserve">235 TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robotistan.com/raspberry-pi-kamera-modulu-camera?query=kamera&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Official camera v2 for Raspberry (Quality Sensor)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waveshare Raspberry Kamera - Ayarlanabilir Fokus (B)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145,11 TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robotistan.com/raspberry-kamera-ayarlanabilir-fokus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just Camera for Raspberry Pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waveshare Raspberry Pi Kamera - Ayarlanabilir Fokus + Kızılötesi Led Modülü (F)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186,21 TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robotistan.com/raspberry-pi-kamera-ayarli-kizilotesi-led-modulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera w/ light Sensors for Raspberry Pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waveshare Laser sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.16TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robotistan.com/lazer-mesafe-sensoru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital o/p, laser based distance sensor for 0.8-1.5m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reflective Optical Sensor with Transistor Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.99TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kalsörde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robotistan.com/tcrt5000-kizilotesi-sensor?query=k%C4%B1z%C4%B1l%C3%B6tesi%20sens%C3%B6r&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR sensör for 0.2 to 15mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR sensor card (8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robotistan.com/qtr-8rc-kizilotesi-sensor?query=k%C4%B1z%C4%B1l%C3%B6tesi%20sens%C3%B6r&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR sensör for 3mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TF mini LiDAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">273.83TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.direnc.net/tf-mini-lidar-tof-lazer-menzil-sensoru-dfrobot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laser menzil sensörü for mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ80 kızılötesi sensör</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robolinkmarket.com/e18-d80nk-3-80cm-ayarlanabilir-kizilotesi-sensor-mz80.html</t>
+    <t>235 TL</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/raspberry-pi-kamera-modulu-camera?query=kamera&amp;</t>
+  </si>
+  <si>
+    <t>Official camera v2 for Raspberry (Quality Sensor)</t>
+  </si>
+  <si>
+    <t>Waveshare Raspberry Kamera - Ayarlanabilir Fokus (B)</t>
+  </si>
+  <si>
+    <t>145,11 TL</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/raspberry-kamera-ayarlanabilir-fokus</t>
+  </si>
+  <si>
+    <t>Just Camera for Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Waveshare Raspberry Pi Kamera - Ayarlanabilir Fokus + Kızılötesi Led Modülü (F)</t>
+  </si>
+  <si>
+    <t>186,21 TL</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/raspberry-pi-kamera-ayarli-kizilotesi-led-modulu</t>
+  </si>
+  <si>
+    <t>Camera w/ light Sensors for Raspberry Pi</t>
+  </si>
+  <si>
+    <t>waveshare Laser sensor</t>
+  </si>
+  <si>
+    <t>82.16TL</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/lazer-mesafe-sensoru</t>
+  </si>
+  <si>
+    <t>Digital o/p, laser based distance sensor for 0.8-1.5m</t>
+  </si>
+  <si>
+    <t>Reflective Optical Sensor with Transistor Output</t>
+  </si>
+  <si>
+    <t>.99TL</t>
+  </si>
+  <si>
+    <t>kalsörde</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/tcrt5000-kizilotesi-sensor?query=k%C4%B1z%C4%B1l%C3%B6tesi%20sens%C3%B6r&amp;</t>
+  </si>
+  <si>
+    <t>IR sensör for 0.2 to 15mm</t>
+  </si>
+  <si>
+    <t>IR sensor card (8)</t>
+  </si>
+  <si>
+    <t>67TL</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/qtr-8rc-kizilotesi-sensor?query=k%C4%B1z%C4%B1l%C3%B6tesi%20sens%C3%B6r&amp;</t>
+  </si>
+  <si>
+    <t>IR sensör for 3mm</t>
+  </si>
+  <si>
+    <t>TF mini LiDAR</t>
+  </si>
+  <si>
+    <t>273.83TL</t>
+  </si>
+  <si>
+    <t>https://www.direnc.net/tf-mini-lidar-tof-lazer-menzil-sensoru-dfrobot</t>
+  </si>
+  <si>
+    <t>Laser menzil sensörü for mapping</t>
+  </si>
+  <si>
+    <t>MZ80 kızılötesi sensör</t>
+  </si>
+  <si>
+    <t>35.4TL</t>
+  </si>
+  <si>
+    <t>https://www.robolinkmarket.com/e18-d80nk-3-80cm-ayarlanabilir-kizilotesi-sensor-mz80.html</t>
   </si>
   <si>
     <t xml:space="preserve">3-80cm distance measurement </t>
   </si>
   <si>
-    <t xml:space="preserve">27.38 TL</t>
+    <t>27.38 TL</t>
   </si>
   <si>
     <r>
@@ -182,7 +187,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">https://goo.gl/PXGHXA</t>
+      <t>https://goo.gl/PXGHXA</t>
     </r>
     <r>
       <rPr>
@@ -194,57 +199,48 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">433MHz RF receiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.54 TL</t>
+    <t>433MHz RF receiver</t>
+  </si>
+  <si>
+    <t>113.54 TL</t>
   </si>
   <si>
     <t xml:space="preserve">https://goo.gl/FMKJEs </t>
   </si>
   <si>
-    <t xml:space="preserve">RF module with high operating frequency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: Please include the link for datasheets. If more datasheets exist for one module than merge that amount of rows for that component.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: Please also download the datasheet and put in datasheet folder.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: Please include the  shopping link in Web Link column.</t>
+    <t>RF module with high operating frequency</t>
+  </si>
+  <si>
+    <t>Note: Please include the link for datasheets. If more datasheets exist for one module than merge that amount of rows for that component.</t>
+  </si>
+  <si>
+    <t>Note: Please also download the datasheet and put in datasheet folder.</t>
+  </si>
+  <si>
+    <t>Note: Please include the  shopping link in Web Link column.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Pixy2-Smart-Vision-Sensor-BeagleBone/dp/B07D1CLYD2</t>
+  </si>
+  <si>
+    <t>59.90$</t>
+  </si>
+  <si>
+    <t>Pixy2 Image Sensor for Arduino and Raspberry Pi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -262,7 +258,7 @@
       <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
@@ -290,7 +286,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -298,81 +294,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -431,30 +384,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.3214285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="133.102040816327"/>
+    <col min="1" max="1" width="53.28515625"/>
+    <col min="5" max="5" width="28.5703125"/>
+    <col min="6" max="6" width="133.140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +745,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -514,7 +775,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -544,7 +805,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -574,7 +835,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -604,7 +865,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -624,7 +885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -642,7 +903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -660,7 +921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
@@ -678,7 +939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -696,7 +957,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
@@ -714,7 +975,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -728,7 +989,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -742,15 +1003,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -758,7 +1025,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -766,7 +1033,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -774,45 +1041,45 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="F18" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="F19" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="F20" s="2" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="klasörde"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://www.robotistan.com/sharp-gp2y0a41sk-4-30cm-sensor-infrared-proximity-sensor-short-range"/>
-    <hyperlink ref="D3" r:id="rId3" display="klasörde"/>
-    <hyperlink ref="E3" r:id="rId4" display="https://www.robotistan.com/sharp-gp2y0d805z0f-kizilotesi-sensor-5-cm"/>
-    <hyperlink ref="D4" r:id="rId5" display="klasörde"/>
-    <hyperlink ref="E4" r:id="rId6" display="https://www.robotistan.com/raspberry-pi-kamera-modulu-camera?query=kamera&amp;"/>
-    <hyperlink ref="E5" r:id="rId7" display="https://www.robotistan.com/raspberry-kamera-ayarlanabilir-fokus"/>
-    <hyperlink ref="E6" r:id="rId8" display="https://www.robotistan.com/raspberry-pi-kamera-ayarli-kizilotesi-led-modulu"/>
-    <hyperlink ref="E7" r:id="rId9" display="https://www.robotistan.com/lazer-mesafe-sensoru"/>
-    <hyperlink ref="D8" r:id="rId10" display="kalsörde"/>
-    <hyperlink ref="E8" r:id="rId11" display="https://www.robotistan.com/tcrt5000-kizilotesi-sensor?query=k%C4%B1z%C4%B1l%C3%B6tesi%20sens%C3%B6r&amp;"/>
-    <hyperlink ref="E9" r:id="rId12" display="https://www.robotistan.com/qtr-8rc-kizilotesi-sensor?query=k%C4%B1z%C4%B1l%C3%B6tesi%20sens%C3%B6r&amp;"/>
-    <hyperlink ref="D10" r:id="rId13" display="klasörde"/>
-    <hyperlink ref="E10" r:id="rId14" display="https://www.direnc.net/tf-mini-lidar-tof-lazer-menzil-sensoru-dfrobot"/>
-    <hyperlink ref="E11" r:id="rId15" display="https://www.robolinkmarket.com/e18-d80nk-3-80cm-ayarlanabilir-kizilotesi-sensor-mz80.html"/>
-    <hyperlink ref="E12" r:id="rId16" display="https://goo.gl/PXGHXA"/>
-    <hyperlink ref="E13" r:id="rId17" display="https://goo.gl/FMKJEs"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E12" r:id="rId16" display="https://goo.gl/PXGHXA" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E13" r:id="rId17" display="https://goo.gl/FMKJEs" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E14" r:id="rId18" xr:uid="{5A8898CF-FE0F-4A06-8806-080700BF717E}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/resources/component_list.xlsx
+++ b/resources/component_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilker\projects\Capstone_Duayenler\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98B8D21-1E6F-42ED-8ED6-3CDC4541C4A0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB64F61-ACF4-4E89-86DC-0341219AC001}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>Component Name</t>
   </si>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t>Pixy2 Image Sensor for Arduino and Raspberry Pi</t>
+  </si>
+  <si>
+    <t>https://www.robolinkmarket.com/tcs3200-renk-sensoru.html</t>
+  </si>
+  <si>
+    <t>TCS3200 Color Sensor</t>
+  </si>
+  <si>
+    <t>20.71 TL</t>
   </si>
 </sst>
 </file>
@@ -705,7 +714,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1020,10 +1029,16 @@
     <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
@@ -1076,6 +1091,7 @@
     <hyperlink ref="E12" r:id="rId16" display="https://goo.gl/PXGHXA" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="E13" r:id="rId17" display="https://goo.gl/FMKJEs" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="E14" r:id="rId18" xr:uid="{5A8898CF-FE0F-4A06-8806-080700BF717E}"/>
+    <hyperlink ref="E15" r:id="rId19" xr:uid="{0CE1CE8E-209D-4BD1-9507-BD7BDFB283C1}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/resources/component_list.xlsx
+++ b/resources/component_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilker\projects\Capstone_Duayenler\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srtls\Documents\GitHub\Capstone_Duayenler\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB64F61-ACF4-4E89-86DC-0341219AC001}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4DFE39-3A4F-4652-9DB1-208C705B06B0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>Component Name</t>
   </si>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>20.71 TL</t>
+  </si>
+  <si>
+    <t>Colour sensor</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>RF modue</t>
+  </si>
+  <si>
+    <t>RF reciever</t>
   </si>
 </sst>
 </file>
@@ -713,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -985,7 +997,9 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
         <v>50</v>
@@ -999,7 +1013,9 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>53</v>
@@ -1013,7 +1029,9 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
         <v>60</v>
@@ -1027,7 +1045,9 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>64</v>

--- a/resources/component_list.xlsx
+++ b/resources/component_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srtls\Documents\GitHub\Capstone_Duayenler\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4DFE39-3A4F-4652-9DB1-208C705B06B0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68B17FA-1A10-4994-B77A-40DAD8BA8106}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>Component Name</t>
   </si>
@@ -248,6 +248,18 @@
   </si>
   <si>
     <t>RF reciever</t>
+  </si>
+  <si>
+    <t>1000rpm motor</t>
+  </si>
+  <si>
+    <t>121TL</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/301-12v-1000rpm-karbon-fircali-mikro-metal-dc-motor-pl-3038?query=dc%20motor&amp;</t>
+  </si>
+  <si>
+    <t>micro motor</t>
   </si>
 </sst>
 </file>
@@ -725,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1061,12 +1073,20 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="E16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
@@ -1112,6 +1132,7 @@
     <hyperlink ref="E13" r:id="rId17" display="https://goo.gl/FMKJEs" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="E14" r:id="rId18" xr:uid="{5A8898CF-FE0F-4A06-8806-080700BF717E}"/>
     <hyperlink ref="E15" r:id="rId19" xr:uid="{0CE1CE8E-209D-4BD1-9507-BD7BDFB283C1}"/>
+    <hyperlink ref="E16" r:id="rId20" xr:uid="{E8C1CE80-064C-424F-90D1-4A6A27C0FD30}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/resources/component_list.xlsx
+++ b/resources/component_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srtls\Documents\GitHub\Capstone_Duayenler\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68B17FA-1A10-4994-B77A-40DAD8BA8106}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3EA98D-0C39-4E51-BFD0-E0C6E7300270}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>Component Name</t>
   </si>
@@ -259,7 +259,19 @@
     <t>https://www.robotistan.com/301-12v-1000rpm-karbon-fircali-mikro-metal-dc-motor-pl-3038?query=dc%20motor&amp;</t>
   </si>
   <si>
-    <t>micro motor</t>
+    <t>1500rpm motor</t>
+  </si>
+  <si>
+    <t>53TL</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/12v-16mm-1500rpm-reduktorlu-dc-motor</t>
+  </si>
+  <si>
+    <t>micro motor high current (1.4A)</t>
+  </si>
+  <si>
+    <t>micro motor mid current (0.8A)</t>
   </si>
 </sst>
 </file>
@@ -1085,16 +1097,24 @@
         <v>71</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="F18" s="2" t="s">
@@ -1133,6 +1153,7 @@
     <hyperlink ref="E14" r:id="rId18" xr:uid="{5A8898CF-FE0F-4A06-8806-080700BF717E}"/>
     <hyperlink ref="E15" r:id="rId19" xr:uid="{0CE1CE8E-209D-4BD1-9507-BD7BDFB283C1}"/>
     <hyperlink ref="E16" r:id="rId20" xr:uid="{E8C1CE80-064C-424F-90D1-4A6A27C0FD30}"/>
+    <hyperlink ref="E17" r:id="rId21" xr:uid="{9AEB2D66-67B5-4471-8400-FEAAE0D3C14F}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/resources/component_list.xlsx
+++ b/resources/component_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srtls\Documents\GitHub\Capstone_Duayenler\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3EA98D-0C39-4E51-BFD0-E0C6E7300270}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C308D3BE-3116-41A1-BC76-4B16BC913DC9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/resources/component_list.xlsx
+++ b/resources/component_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srtls\Documents\GitHub\Capstone_Duayenler\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C308D3BE-3116-41A1-BC76-4B16BC913DC9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F557D7FB-00A5-45A7-B224-10A41E06F0A2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
   <si>
     <t>Component Name</t>
   </si>
@@ -272,6 +272,18 @@
   </si>
   <si>
     <t>micro motor mid current (0.8A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultrasonic distance sensor </t>
+  </si>
+  <si>
+    <t>8 TL</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/hc-sr04-ultrasonik-mesafe-sensoru?_sgm_campaign=scn_6186b7884aa16000&amp;_sgm_source=1751&amp;_sgm_action=click</t>
+  </si>
+  <si>
+    <t>40KHz sonic measurement 2cm to 4m 3mm precision</t>
   </si>
 </sst>
 </file>
@@ -747,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1117,17 +1129,31 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F31" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="F19" s="2" t="s">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F32" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="F20" s="2" t="s">
+    <row r="33" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F33" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1154,6 +1180,7 @@
     <hyperlink ref="E15" r:id="rId19" xr:uid="{0CE1CE8E-209D-4BD1-9507-BD7BDFB283C1}"/>
     <hyperlink ref="E16" r:id="rId20" xr:uid="{E8C1CE80-064C-424F-90D1-4A6A27C0FD30}"/>
     <hyperlink ref="E17" r:id="rId21" xr:uid="{9AEB2D66-67B5-4471-8400-FEAAE0D3C14F}"/>
+    <hyperlink ref="E18" r:id="rId22" xr:uid="{6A643E2A-B345-4C79-840C-5E414534A084}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/resources/component_list.xlsx
+++ b/resources/component_list.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srtls\Documents\GitHub\Capstone_Duayenler\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF59D9B2-FB09-4326-90F1-89CF5F1653A4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,246 +25,246 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="119">
-  <si>
-    <t xml:space="preserve">Component Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datasheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharp GP2Y0A41SK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75,54 TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">klasörde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robotistan.com/sharp-gp2y0a41sk-4-30cm-sensor-infrared-proximity-sensor-short-range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog o/p, laser based distance sensor for 4-30 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharp GP2Y0D805Z0F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42,41TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robotistan.com/sharp-gp2y0d805z0f-kizilotesi-sensor-5-cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital o/p, laser based distance sensor for 0-5 cm</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="128">
+  <si>
+    <t>Component Name</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>Web Link</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Sharp GP2Y0A41SK</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>75,54 TL</t>
+  </si>
+  <si>
+    <t>klasörde</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/sharp-gp2y0a41sk-4-30cm-sensor-infrared-proximity-sensor-short-range</t>
+  </si>
+  <si>
+    <t>Analog o/p, laser based distance sensor for 4-30 cm</t>
+  </si>
+  <si>
+    <t>Sharp GP2Y0D805Z0F</t>
+  </si>
+  <si>
+    <t>42,41TL</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/sharp-gp2y0d805z0f-kizilotesi-sensor-5-cm</t>
+  </si>
+  <si>
+    <t>Digital o/p, laser based distance sensor for 0-5 cm</t>
   </si>
   <si>
     <t xml:space="preserve">Raspberry Pi Kamera Modülü V2 </t>
   </si>
   <si>
-    <t xml:space="preserve">235 TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robotistan.com/raspberry-pi-kamera-modulu-camera?query=kamera&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Official camera v2 for Raspberry (Quality Sensor)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waveshare Raspberry Kamera - Ayarlanabilir Fokus (B)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145,11 TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robotistan.com/raspberry-kamera-ayarlanabilir-fokus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just Camera for Raspberry Pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waveshare Raspberry Pi Kamera - Ayarlanabilir Fokus + Kızılötesi Led Modülü (F)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186,21 TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robotistan.com/raspberry-pi-kamera-ayarli-kizilotesi-led-modulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera w/ light Sensors for Raspberry Pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waveshare Laser sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.16TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robotistan.com/lazer-mesafe-sensoru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital o/p, laser based distance sensor for 0.8-1.5m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reflective Optical Sensor with Transistor Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.99TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kalsörde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robotistan.com/tcrt5000-kizilotesi-sensor?query=k%C4%B1z%C4%B1l%C3%B6tesi%20sens%C3%B6r&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR sensör for 0.2 to 15mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR sensor card (8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robotistan.com/qtr-8rc-kizilotesi-sensor?query=k%C4%B1z%C4%B1l%C3%B6tesi%20sens%C3%B6r&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR sensör for 3mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TF mini LiDAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">273.83TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.direnc.net/tf-mini-lidar-tof-lazer-menzil-sensoru-dfrobot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laser menzil sensörü for mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ80 kızılötesi sensör</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robolinkmarket.com/e18-d80nk-3-80cm-ayarlanabilir-kizilotesi-sensor-mz80.html</t>
+    <t>235 TL</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/raspberry-pi-kamera-modulu-camera?query=kamera&amp;</t>
+  </si>
+  <si>
+    <t>Official camera v2 for Raspberry (Quality Sensor)</t>
+  </si>
+  <si>
+    <t>Waveshare Raspberry Kamera - Ayarlanabilir Fokus (B)</t>
+  </si>
+  <si>
+    <t>145,11 TL</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/raspberry-kamera-ayarlanabilir-fokus</t>
+  </si>
+  <si>
+    <t>Just Camera for Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Waveshare Raspberry Pi Kamera - Ayarlanabilir Fokus + Kızılötesi Led Modülü (F)</t>
+  </si>
+  <si>
+    <t>186,21 TL</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/raspberry-pi-kamera-ayarli-kizilotesi-led-modulu</t>
+  </si>
+  <si>
+    <t>Camera w/ light Sensors for Raspberry Pi</t>
+  </si>
+  <si>
+    <t>waveshare Laser sensor</t>
+  </si>
+  <si>
+    <t>82.16TL</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/lazer-mesafe-sensoru</t>
+  </si>
+  <si>
+    <t>Digital o/p, laser based distance sensor for 0.8-1.5m</t>
+  </si>
+  <si>
+    <t>Reflective Optical Sensor with Transistor Output</t>
+  </si>
+  <si>
+    <t>.99TL</t>
+  </si>
+  <si>
+    <t>kalsörde</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/tcrt5000-kizilotesi-sensor?query=k%C4%B1z%C4%B1l%C3%B6tesi%20sens%C3%B6r&amp;</t>
+  </si>
+  <si>
+    <t>IR sensör for 0.2 to 15mm</t>
+  </si>
+  <si>
+    <t>IR sensor card (8)</t>
+  </si>
+  <si>
+    <t>67TL</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/qtr-8rc-kizilotesi-sensor?query=k%C4%B1z%C4%B1l%C3%B6tesi%20sens%C3%B6r&amp;</t>
+  </si>
+  <si>
+    <t>IR sensör for 3mm</t>
+  </si>
+  <si>
+    <t>TF mini LiDAR</t>
+  </si>
+  <si>
+    <t>273.83TL</t>
+  </si>
+  <si>
+    <t>https://www.direnc.net/tf-mini-lidar-tof-lazer-menzil-sensoru-dfrobot</t>
+  </si>
+  <si>
+    <t>Laser menzil sensörü for mapping</t>
+  </si>
+  <si>
+    <t>MZ80 kızılötesi sensör</t>
+  </si>
+  <si>
+    <t>35.4TL</t>
+  </si>
+  <si>
+    <t>https://www.robolinkmarket.com/e18-d80nk-3-80cm-ayarlanabilir-kizilotesi-sensor-mz80.html</t>
   </si>
   <si>
     <t xml:space="preserve">3-80cm distance measurement </t>
   </si>
   <si>
-    <t xml:space="preserve">RF reciever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.38 TL</t>
+    <t>RF reciever</t>
+  </si>
+  <si>
+    <t>27.38 TL</t>
   </si>
   <si>
     <t xml:space="preserve">https://goo.gl/PXGHXA </t>
   </si>
   <si>
-    <t xml:space="preserve">433MHz RF receiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RF modue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.54 TL</t>
+    <t>433MHz RF receiver</t>
+  </si>
+  <si>
+    <t>RF modue</t>
+  </si>
+  <si>
+    <t>113.54 TL</t>
   </si>
   <si>
     <t xml:space="preserve">https://goo.gl/FMKJEs </t>
   </si>
   <si>
-    <t xml:space="preserve">RF module with high operating frequency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.90$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Pixy2-Smart-Vision-Sensor-BeagleBone/dp/B07D1CLYD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pixy2 Image Sensor for Arduino and Raspberry Pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colour sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.71 TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robolinkmarket.com/tcs3200-renk-sensoru.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCS3200 Color Sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000rpm motor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robotistan.com/301-12v-1000rpm-karbon-fircali-mikro-metal-dc-motor-pl-3038?query=dc%20motor&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro motor mid current (0.8A)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1500rpm motor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robotistan.com/12v-16mm-1500rpm-reduktorlu-dc-motor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro motor high current (1.4A)</t>
+    <t>RF module with high operating frequency</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>59.90$</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Pixy2-Smart-Vision-Sensor-BeagleBone/dp/B07D1CLYD2</t>
+  </si>
+  <si>
+    <t>Pixy2 Image Sensor for Arduino and Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Colour sensor</t>
+  </si>
+  <si>
+    <t>20.71 TL</t>
+  </si>
+  <si>
+    <t>https://www.robolinkmarket.com/tcs3200-renk-sensoru.html</t>
+  </si>
+  <si>
+    <t>TCS3200 Color Sensor</t>
+  </si>
+  <si>
+    <t>1000rpm motor</t>
+  </si>
+  <si>
+    <t>121TL</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/301-12v-1000rpm-karbon-fircali-mikro-metal-dc-motor-pl-3038?query=dc%20motor&amp;</t>
+  </si>
+  <si>
+    <t>micro motor mid current (0.8A)</t>
+  </si>
+  <si>
+    <t>1500rpm motor</t>
+  </si>
+  <si>
+    <t>53TL</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/12v-16mm-1500rpm-reduktorlu-dc-motor</t>
+  </si>
+  <si>
+    <t>micro motor high current (1.4A)</t>
   </si>
   <si>
     <t xml:space="preserve">Ultrasonic distance sensor </t>
   </si>
   <si>
-    <t xml:space="preserve">8 TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.robotistan.com/hc-sr04-ultrasonik-mesafe-sensoru?_sgm_campaign=scn_6186b7884aa16000&amp;_sgm_source=1751&amp;_sgm_action=click</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40KHz sonic measurement 2cm to 4m 3mm precision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L293D motor driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.64 TL</t>
+    <t>8 TL</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/hc-sr04-ultrasonik-mesafe-sensoru?_sgm_campaign=scn_6186b7884aa16000&amp;_sgm_source=1751&amp;_sgm_action=click</t>
+  </si>
+  <si>
+    <t>40KHz sonic measurement 2cm to 4m 3mm precision</t>
+  </si>
+  <si>
+    <t>L293D motor driver</t>
+  </si>
+  <si>
+    <t>36.64 TL</t>
   </si>
   <si>
     <r>
@@ -270,7 +275,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://goo.gl/LdgS8J</t>
+      <t>https://goo.gl/LdgS8J</t>
     </r>
     <r>
       <rPr>
@@ -283,10 +288,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2 DC or 1 step motor 0.6A (1.2A peak) 4.5-36V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.30 TL</t>
+    <t>2 DC or 1 step motor 0.6A (1.2A peak) 4.5-36V</t>
+  </si>
+  <si>
+    <t>22.30 TL</t>
   </si>
   <si>
     <r>
@@ -297,7 +302,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://goo.gl/2AcC8U</t>
+      <t>https://goo.gl/2AcC8U</t>
     </r>
     <r>
       <rPr>
@@ -310,13 +315,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">double l293d IC with lower price than single one rest is the same</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L298N motor driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.05 TL</t>
+    <t>double l293d IC with lower price than single one rest is the same</t>
+  </si>
+  <si>
+    <t>L298N motor driver</t>
+  </si>
+  <si>
+    <t>19.05 TL</t>
   </si>
   <si>
     <r>
@@ -327,7 +332,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://goo.gl/kSozm7</t>
+      <t>https://goo.gl/kSozm7</t>
     </r>
     <r>
       <rPr>
@@ -340,13 +345,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2 DC or 1 step motor 2A for each  6-15V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCA9685 Servo driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.75 TL</t>
+    <t>2 DC or 1 step motor 2A for each  6-15V</t>
+  </si>
+  <si>
+    <t>PCA9685 Servo driver</t>
+  </si>
+  <si>
+    <t>21.75 TL</t>
   </si>
   <si>
     <r>
@@ -357,7 +362,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://goo.gl/vX4HLz</t>
+      <t>https://goo.gl/vX4HLz</t>
     </r>
     <r>
       <rPr>
@@ -370,13 +375,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">16 channel 12 bit servo (pwm) driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servo motor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.36 TL</t>
+    <t>16 channel 12 bit servo (pwm) driver</t>
+  </si>
+  <si>
+    <t>Servo motor</t>
+  </si>
+  <si>
+    <t>36.36 TL</t>
   </si>
   <si>
     <r>
@@ -387,7 +392,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://goo.gl/VhdDSz</t>
+      <t>https://goo.gl/VhdDSz</t>
     </r>
     <r>
       <rPr>
@@ -400,10 +405,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Torque 1.6kg  4.8-6V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.90 TL</t>
+    <t>Torque 1.6kg  4.8-6V</t>
+  </si>
+  <si>
+    <t>17.90 TL</t>
   </si>
   <si>
     <r>
@@ -414,7 +419,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://goo.gl/Nac12B</t>
+      <t>https://goo.gl/Nac12B</t>
     </r>
     <r>
       <rPr>
@@ -427,13 +432,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Torque 1.3kg  4.8-7V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stepper motor driver  A4988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.90 TL</t>
+    <t>Torque 1.3kg  4.8-7V</t>
+  </si>
+  <si>
+    <t>Stepper motor driver  A4988</t>
+  </si>
+  <si>
+    <t>19.90 TL</t>
   </si>
   <si>
     <r>
@@ -444,7 +449,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://goo.gl/T5PD32</t>
+      <t>https://goo.gl/T5PD32</t>
     </r>
     <r>
       <rPr>
@@ -457,10 +462,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8-35 V, 2A per coil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some stepper motors</t>
+    <t>8-35 V, 2A per coil</t>
+  </si>
+  <si>
+    <t>Some stepper motors</t>
   </si>
   <si>
     <r>
@@ -471,7 +476,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://www.robotshop.com/en/stepper-motors.html</t>
+      <t>https://www.robotshop.com/en/stepper-motors.html</t>
     </r>
     <r>
       <rPr>
@@ -484,10 +489,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Stepper motor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.39 TL</t>
+    <t>Stepper motor</t>
+  </si>
+  <si>
+    <t>112.39 TL</t>
   </si>
   <si>
     <r>
@@ -498,7 +503,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://goo.gl/7RR5m3</t>
+      <t>https://goo.gl/7RR5m3</t>
     </r>
     <r>
       <rPr>
@@ -511,10 +516,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">0.95A 4.2 ohm 1.6 kg-cm 2.5mH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.92 TL</t>
+    <t>0.95A 4.2 ohm 1.6 kg-cm 2.5mH</t>
+  </si>
+  <si>
+    <t>10.92 TL</t>
   </si>
   <si>
     <r>
@@ -525,7 +530,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://goo.gl/98u28P</t>
+      <t>https://goo.gl/98u28P</t>
     </r>
     <r>
       <rPr>
@@ -538,13 +543,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Arduino hobby type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC motor with encoder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.17 TL</t>
+    <t>Arduino hobby type</t>
+  </si>
+  <si>
+    <t>DC motor with encoder</t>
+  </si>
+  <si>
+    <t>134.17 TL</t>
   </si>
   <si>
     <r>
@@ -555,7 +560,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://goo.gl/fLA5p4</t>
+      <t>https://goo.gl/fLA5p4</t>
     </r>
     <r>
       <rPr>
@@ -568,43 +573,52 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Note: Please include the link for datasheets. If more datasheets exist for one module than merge that amount of rows for that component.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: Please also download the datasheet and put in datasheet folder.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: Please include the  shopping link in Web Link column.</t>
+    <t>Palet lastiği</t>
+  </si>
+  <si>
+    <t>1.4-2.2$</t>
+  </si>
+  <si>
+    <t>https://goo.gl/acJPS3</t>
+  </si>
+  <si>
+    <t>plalet lastiği-2</t>
+  </si>
+  <si>
+    <t>3.7$</t>
+  </si>
+  <si>
+    <t>https://goo.gl/o8bqYG</t>
+  </si>
+  <si>
+    <t>ucuz lastik palet</t>
+  </si>
+  <si>
+    <t>ucuzdan pahalı lastik palet</t>
+  </si>
+  <si>
+    <t>plalet lastiği-3</t>
+  </si>
+  <si>
+    <t>6$</t>
+  </si>
+  <si>
+    <t>https://goo.gl/vKvxu3</t>
+  </si>
+  <si>
+    <t>ucuzdan pahalıdan ucuz lastik çift fiyat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -613,7 +627,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -628,7 +642,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
@@ -636,7 +650,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
@@ -667,7 +681,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -675,97 +689,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -824,33 +787,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="82.3010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="48.2091836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="129.311224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="8.50510204081633"/>
+    <col min="1" max="1" width="82.28515625" style="1"/>
+    <col min="2" max="3" width="8.5703125" style="1"/>
+    <col min="4" max="4" width="12.28515625" style="1"/>
+    <col min="5" max="5" width="48.140625" style="1"/>
+    <col min="6" max="6" width="129.28515625" style="1"/>
+    <col min="7" max="1025" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -870,7 +1141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -890,7 +1161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -910,7 +1181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -930,7 +1201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -950,7 +1221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -970,7 +1241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -988,7 +1259,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -1006,7 +1277,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
@@ -1024,7 +1295,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -1042,7 +1313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
@@ -1060,7 +1331,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
@@ -1076,7 +1347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>54</v>
       </c>
@@ -1092,7 +1363,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>58</v>
       </c>
@@ -1108,7 +1379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
@@ -1124,7 +1395,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>66</v>
       </c>
@@ -1140,7 +1411,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
@@ -1156,7 +1427,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>74</v>
       </c>
@@ -1170,7 +1441,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
@@ -1184,7 +1455,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
@@ -1198,7 +1469,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -1212,7 +1483,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>89</v>
       </c>
@@ -1226,7 +1497,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
@@ -1240,7 +1511,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -1254,7 +1525,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -1268,7 +1539,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -1279,7 +1550,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>106</v>
       </c>
@@ -1293,7 +1564,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>106</v>
       </c>
@@ -1307,7 +1578,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>113</v>
       </c>
@@ -1318,61 +1589,90 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="F31" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="F32" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="klasörde"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://www.robotistan.com/sharp-gp2y0a41sk-4-30cm-sensor-infrared-proximity-sensor-short-range"/>
-    <hyperlink ref="D3" r:id="rId3" display="klasörde"/>
-    <hyperlink ref="E3" r:id="rId4" display="https://www.robotistan.com/sharp-gp2y0d805z0f-kizilotesi-sensor-5-cm"/>
-    <hyperlink ref="D4" r:id="rId5" display="klasörde"/>
-    <hyperlink ref="E4" r:id="rId6" display="https://www.robotistan.com/raspberry-pi-kamera-modulu-camera?query=kamera&amp;"/>
-    <hyperlink ref="E5" r:id="rId7" display="https://www.robotistan.com/raspberry-kamera-ayarlanabilir-fokus"/>
-    <hyperlink ref="E6" r:id="rId8" display="https://www.robotistan.com/raspberry-pi-kamera-ayarli-kizilotesi-led-modulu"/>
-    <hyperlink ref="E7" r:id="rId9" display="https://www.robotistan.com/lazer-mesafe-sensoru"/>
-    <hyperlink ref="D8" r:id="rId10" display="kalsörde"/>
-    <hyperlink ref="E8" r:id="rId11" display="https://www.robotistan.com/tcrt5000-kizilotesi-sensor?query=k%C4%B1z%C4%B1l%C3%B6tesi%20sens%C3%B6r&amp;"/>
-    <hyperlink ref="E9" r:id="rId12" display="https://www.robotistan.com/qtr-8rc-kizilotesi-sensor?query=k%C4%B1z%C4%B1l%C3%B6tesi%20sens%C3%B6r&amp;"/>
-    <hyperlink ref="D10" r:id="rId13" display="klasörde"/>
-    <hyperlink ref="E10" r:id="rId14" display="https://www.direnc.net/tf-mini-lidar-tof-lazer-menzil-sensoru-dfrobot"/>
-    <hyperlink ref="E11" r:id="rId15" display="https://www.robolinkmarket.com/e18-d80nk-3-80cm-ayarlanabilir-kizilotesi-sensor-mz80.html"/>
-    <hyperlink ref="E12" r:id="rId16" display="https://goo.gl/PXGHXA "/>
-    <hyperlink ref="E13" r:id="rId17" display="https://goo.gl/FMKJEs "/>
-    <hyperlink ref="E14" r:id="rId18" display="https://www.amazon.com/Pixy2-Smart-Vision-Sensor-BeagleBone/dp/B07D1CLYD2"/>
-    <hyperlink ref="E15" r:id="rId19" display="https://www.robolinkmarket.com/tcs3200-renk-sensoru.html"/>
-    <hyperlink ref="E16" r:id="rId20" display="https://www.robotistan.com/301-12v-1000rpm-karbon-fircali-mikro-metal-dc-motor-pl-3038?query=dc%20motor&amp;"/>
-    <hyperlink ref="E17" r:id="rId21" display="https://www.robotistan.com/12v-16mm-1500rpm-reduktorlu-dc-motor"/>
-    <hyperlink ref="E18" r:id="rId22" display="https://www.robotistan.com/hc-sr04-ultrasonik-mesafe-sensoru?_sgm_campaign=scn_6186b7884aa16000&amp;_sgm_source=1751&amp;_sgm_action=click"/>
-    <hyperlink ref="E19" r:id="rId23" display="https://goo.gl/LdgS8J"/>
-    <hyperlink ref="E20" r:id="rId24" display="https://goo.gl/2AcC8U"/>
-    <hyperlink ref="E21" r:id="rId25" display="https://goo.gl/kSozm7"/>
-    <hyperlink ref="E22" r:id="rId26" display="https://goo.gl/vX4HLz"/>
-    <hyperlink ref="E23" r:id="rId27" display="https://goo.gl/VhdDSz"/>
-    <hyperlink ref="E24" r:id="rId28" display="https://goo.gl/Nac12B"/>
-    <hyperlink ref="E25" r:id="rId29" display="https://goo.gl/T5PD32"/>
-    <hyperlink ref="E26" r:id="rId30" display="https://www.robotshop.com/en/stepper-motors.html"/>
-    <hyperlink ref="E27" r:id="rId31" display="https://goo.gl/7RR5m3"/>
-    <hyperlink ref="E28" r:id="rId32" display="https://goo.gl/98u28P"/>
-    <hyperlink ref="E29" r:id="rId33" display="https://goo.gl/fLA5p4"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E12" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E13" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E15" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E16" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E17" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E18" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E19" r:id="rId23" display="https://goo.gl/LdgS8J" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E20" r:id="rId24" display="https://goo.gl/2AcC8U" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E21" r:id="rId25" display="https://goo.gl/kSozm7" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E22" r:id="rId26" display="https://goo.gl/vX4HLz" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E23" r:id="rId27" display="https://goo.gl/VhdDSz" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E24" r:id="rId28" display="https://goo.gl/Nac12B" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E25" r:id="rId29" display="https://goo.gl/T5PD32" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E26" r:id="rId30" display="https://www.robotshop.com/en/stepper-motors.html" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E27" r:id="rId31" display="https://goo.gl/7RR5m3" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E28" r:id="rId32" display="https://goo.gl/98u28P" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E29" r:id="rId33" display="https://goo.gl/fLA5p4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E30" r:id="rId34" xr:uid="{299647CC-49D4-49B3-BEEA-20B92604F44D}"/>
+    <hyperlink ref="E31" r:id="rId35" xr:uid="{F83CF1A7-DD21-433E-A86E-D3BDE9F18909}"/>
+    <hyperlink ref="E32" r:id="rId36" xr:uid="{A52E397C-6431-455E-90BF-A81C8B4F3068}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/resources/component_list.xlsx
+++ b/resources/component_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srtls\Documents\GitHub\Capstone_Duayenler\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF59D9B2-FB09-4326-90F1-89CF5F1653A4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8CBBD0-0518-46E9-A259-46570E550E29}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="132">
   <si>
     <t>Component Name</t>
   </si>
@@ -607,6 +607,18 @@
   </si>
   <si>
     <t>ucuzdan pahalıdan ucuz lastik çift fiyat</t>
+  </si>
+  <si>
+    <t>Palet bakla x20</t>
+  </si>
+  <si>
+    <t>20tl</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/palet-bakla-seti-20li</t>
+  </si>
+  <si>
+    <t>bakla bakla palet hemide yerli</t>
   </si>
 </sst>
 </file>
@@ -1105,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK32"/>
+  <dimension ref="A1:AMK33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1629,6 +1641,20 @@
       </c>
       <c r="F32" s="1" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1669,6 +1695,7 @@
     <hyperlink ref="E30" r:id="rId34" xr:uid="{299647CC-49D4-49B3-BEEA-20B92604F44D}"/>
     <hyperlink ref="E31" r:id="rId35" xr:uid="{F83CF1A7-DD21-433E-A86E-D3BDE9F18909}"/>
     <hyperlink ref="E32" r:id="rId36" xr:uid="{A52E397C-6431-455E-90BF-A81C8B4F3068}"/>
+    <hyperlink ref="E33" r:id="rId37" xr:uid="{900CFB5E-04CD-4A9A-972D-854270B33E8A}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/resources/component_list.xlsx
+++ b/resources/component_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srtls\Documents\GitHub\Capstone_Duayenler\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8CBBD0-0518-46E9-A259-46570E550E29}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15612EA6-D781-406B-B490-608D0ED188AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1119,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/resources/component_list.xlsx
+++ b/resources/component_list.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srtls\Documents\GitHub\Capstone_Duayenler\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15612EA6-D781-406B-B490-608D0ED188AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AB09A58A-177A-4301-80E4-4D1227A69299}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="179017" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="137">
   <si>
     <t>Component Name</t>
   </si>
@@ -619,6 +619,21 @@
   </si>
   <si>
     <t>bakla bakla palet hemide yerli</t>
+  </si>
+  <si>
+    <t>https://www.robotzade.com/Siyah,PR-1495.html?gclid=Cj0KCQiAi57gBRDqARIsABhDSMoGG0TIg3sSXrvKhRuDq2lmi4k_47o6L89anyTeEgqrA6pxITH1tFIaAvqyEALw_wcB</t>
+  </si>
+  <si>
+    <t>tekerlek emergency</t>
+  </si>
+  <si>
+    <t>teker</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>https://www.robotzade.com/Karbon-6V-600Rpm-Dc-Motor,PR-1181.html</t>
   </si>
 </sst>
 </file>
@@ -736,7 +751,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -821,7 +836,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1117,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK33"/>
+  <dimension ref="A1:AMK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1655,6 +1670,40 @@
       </c>
       <c r="F33" s="1" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="1">
+        <v>37</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="1">
+        <v>52</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E37" s="1" t="str">
+        <f>+A35</f>
+        <v>motor</v>
       </c>
     </row>
   </sheetData>
@@ -1696,6 +1745,9 @@
     <hyperlink ref="E31" r:id="rId35" xr:uid="{F83CF1A7-DD21-433E-A86E-D3BDE9F18909}"/>
     <hyperlink ref="E32" r:id="rId36" xr:uid="{A52E397C-6431-455E-90BF-A81C8B4F3068}"/>
     <hyperlink ref="E33" r:id="rId37" xr:uid="{900CFB5E-04CD-4A9A-972D-854270B33E8A}"/>
+    <hyperlink ref="A34" r:id="rId38" display="https://www.robotzade.com/Siyah,PR-1495.html?gclid=Cj0KCQiAi57gBRDqARIsABhDSMoGG0TIg3sSXrvKhRuDq2lmi4k_47o6L89anyTeEgqrA6pxITH1tFIaAvqyEALw_wcB" xr:uid="{D3D5D5A5-190A-4E4A-B38C-7E5614B51334}"/>
+    <hyperlink ref="E34" r:id="rId39" xr:uid="{E67AEE41-35A7-47ED-903F-77E3580692A7}"/>
+    <hyperlink ref="E35" r:id="rId40" xr:uid="{9931CE3C-319A-4E3D-B4C5-ABA916830D50}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
